--- a/res/tables/waiting_time.xlsx
+++ b/res/tables/waiting_time.xlsx
@@ -435,226 +435,226 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>30000</v>
+        <v>280000</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>40000</v>
+        <v>360000</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>50000</v>
+        <v>440000</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>60000</v>
+        <v>520000</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>70000</v>
+        <v>600000</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>80000</v>
+        <v>680000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>90000</v>
+        <v>760000</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>100000</v>
+        <v>840000</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>110000</v>
+        <v>920000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7363636363636364</v>
+        <v>0.03427899686520377</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2020408163265306</v>
+        <v>0.01630629287205488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09271592091571279</v>
+        <v>0.009507042253521126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05300416418798334</v>
+        <v>0.006220844237114574</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0342560553633218</v>
+        <v>0.004385577925723911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02394517602794947</v>
+        <v>0.003257372654155496</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01767506447133506</v>
+        <v>0.002514602400772662</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01358024691358025</v>
+        <v>0.001999743974251125</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01075957010022944</v>
+        <v>0.001628249798981506</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008734437800215666</v>
+        <v>0.0013514348567615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.08344432882414153</v>
+        <v>0.05997000843983603</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02055363321799308</v>
+        <v>0.02694819316035391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007953779012100776</v>
+        <v>0.01529885732016621</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003873445236082598</v>
+        <v>0.009857386613487987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002169466764061359</v>
+        <v>0.006879634457189203</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001335087032890191</v>
+        <v>0.005073716003169946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008792377527301437</v>
+        <v>0.003896206372806623</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006094182825484767</v>
+        <v>0.003085907041450198</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004396261067404951</v>
+        <v>0.002504533068557459</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003274859055277285</v>
+        <v>0.002073284234968427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.010405276816609</v>
+        <v>0.1270143075315489</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001833333333333333</v>
+        <v>0.04992792524107764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005491462746530313</v>
+        <v>0.02689296285271469</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002178089633318243</v>
+        <v>0.01684633420568583</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001028393351800554</v>
+        <v>0.01155249684876134</v>
       </c>
       <c r="F5" t="n">
-        <v>5.468469410486401e-05</v>
+        <v>0.00841818587564328</v>
       </c>
       <c r="G5" t="n">
-        <v>3.169932745825602e-05</v>
+        <v>0.006408272230644614</v>
       </c>
       <c r="H5" t="n">
-        <v>1.961950059453032e-05</v>
+        <v>0.005041961771467828</v>
       </c>
       <c r="I5" t="n">
-        <v>1.278403656073972e-05</v>
+        <v>0.004070793704940047</v>
       </c>
       <c r="J5" t="n">
-        <v>8.682774994243243e-06</v>
+        <v>0.003355715718830629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.001073760166633605</v>
+        <v>0.08380160153023723</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001301680058436815</v>
+        <v>0.03303947346109459</v>
       </c>
       <c r="C6" t="n">
-        <v>2.967427415464235e-05</v>
+        <v>0.0178230604566582</v>
       </c>
       <c r="D6" t="n">
-        <v>9.495923905594692e-06</v>
+        <v>0.01117495727888225</v>
       </c>
       <c r="E6" t="n">
-        <v>3.7569573283859e-06</v>
+        <v>0.007668016339493183</v>
       </c>
       <c r="F6" t="n">
-        <v>1.719021353607939e-06</v>
+        <v>0.005590071248233124</v>
       </c>
       <c r="G6" t="n">
-        <v>8.744263461399284e-07</v>
+        <v>0.004256809332781093</v>
       </c>
       <c r="H6" t="n">
-        <v>4.821389436774054e-07</v>
+        <v>0.003350082681682742</v>
       </c>
       <c r="I6" t="n">
-        <v>2.832438301685624e-07</v>
+        <v>0.002705362859127441</v>
       </c>
       <c r="J6" t="n">
-        <v>1.751383998660681e-07</v>
+        <v>0.002230518232927768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.191867112969447e-05</v>
+        <v>0.06345768187460979</v>
       </c>
       <c r="B7" t="n">
-        <v>7.562811226799456e-06</v>
+        <v>0.02538023155024153</v>
       </c>
       <c r="C7" t="n">
-        <v>1.304066698461185e-06</v>
+        <v>0.01377979569353488</v>
       </c>
       <c r="D7" t="n">
-        <v>3.354999053046607e-07</v>
+        <v>0.008671562016721847</v>
       </c>
       <c r="E7" t="n">
-        <v>1.109725395897545e-07</v>
+        <v>0.005964322452953316</v>
       </c>
       <c r="F7" t="n">
-        <v>4.362200130168381e-08</v>
+        <v>0.004355247086693242</v>
       </c>
       <c r="G7" t="n">
-        <v>1.944881036008501e-08</v>
+        <v>0.003320543934991275</v>
       </c>
       <c r="H7" t="n">
-        <v>9.544634180202697e-09</v>
+        <v>0.002615697719176279</v>
       </c>
       <c r="I7" t="n">
-        <v>5.051769426043528e-09</v>
+        <v>0.002113878945252265</v>
       </c>
       <c r="J7" t="n">
-        <v>2.842112296222506e-09</v>
+        <v>0.001743902906638115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.67212723703433e-06</v>
+        <v>0.04436659961572294</v>
       </c>
       <c r="B8" t="n">
-        <v>3.702216066481993e-07</v>
+        <v>0.1202188140879932</v>
       </c>
       <c r="C8" t="n">
-        <v>4.814335357722634e-08</v>
+        <v>0.04596099805565225</v>
       </c>
       <c r="D8" t="n">
-        <v>9.940866829631203e-09</v>
+        <v>0.02530999387179782</v>
       </c>
       <c r="E8" t="n">
-        <v>2.745931952662721e-09</v>
+        <v>0.01621216147359796</v>
       </c>
       <c r="F8" t="n">
-        <v>9.265874458694525e-10</v>
+        <v>0.01132411753515522</v>
       </c>
       <c r="G8" t="n">
-        <v>3.618832703144334e-10</v>
+        <v>0.008375273921000806</v>
       </c>
       <c r="H8" t="n">
-        <v>1.580005745475438e-10</v>
+        <v>0.006453074737087072</v>
       </c>
       <c r="I8" t="n">
-        <v>7.531566131567418e-11</v>
+        <v>0.005127986978200037</v>
       </c>
       <c r="J8" t="n">
-        <v>3.854205374213389e-11</v>
+        <v>0.004174815392813363</v>
       </c>
     </row>
   </sheetData>
